--- a/data/trans_dic/Q17F_D_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 36,37</t>
+          <t>4,94; 36,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 34,87</t>
+          <t>8,11; 36,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 19,12</t>
+          <t>2,15; 17,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 44,0</t>
+          <t>3,24; 43,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,36</t>
+          <t>0,0; 12,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 27,87</t>
+          <t>3,25; 27,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 28,51</t>
+          <t>2,77; 27,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 27,64</t>
+          <t>7,13; 27,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 16,02</t>
+          <t>2,61; 14,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 25,68</t>
+          <t>7,83; 26,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 17,88</t>
+          <t>3,43; 17,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 27,83</t>
+          <t>7,65; 26,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 23,87</t>
+          <t>8,42; 22,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 20,0</t>
+          <t>8,34; 19,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 22,12</t>
+          <t>9,13; 21,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 28,45</t>
+          <t>12,55; 28,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,79</t>
+          <t>6,73; 17,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 16,11</t>
+          <t>7,18; 16,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 21,73</t>
+          <t>11,39; 21,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 30,45</t>
+          <t>18,69; 30,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,72</t>
+          <t>8,92; 17,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 15,92</t>
+          <t>8,78; 16,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,9</t>
+          <t>11,45; 19,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 27,04</t>
+          <t>17,73; 26,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,37</t>
+          <t>6,93; 16,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 21,53</t>
+          <t>10,9; 20,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 14,62</t>
+          <t>6,89; 14,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 34,59</t>
+          <t>20,53; 33,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,4</t>
+          <t>10,49; 19,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,39</t>
+          <t>9,94; 17,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 16,29</t>
+          <t>9,02; 16,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,77; 41,9</t>
+          <t>30,75; 42,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 16,66</t>
+          <t>10,19; 17,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,18</t>
+          <t>11,33; 17,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,07</t>
+          <t>8,87; 14,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,63; 36,63</t>
+          <t>28,19; 36,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 32,28</t>
+          <t>17,42; 32,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 22,41</t>
+          <t>10,19; 22,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 26,55</t>
+          <t>12,91; 26,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,09; 55,42</t>
+          <t>37,8; 56,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,34</t>
+          <t>12,13; 22,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 20,39</t>
+          <t>10,13; 20,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 29,7</t>
+          <t>18,29; 29,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,0; 50,73</t>
+          <t>36,22; 50,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 24,65</t>
+          <t>15,89; 25,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 19,26</t>
+          <t>11,55; 19,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 25,9</t>
+          <t>17,67; 26,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,88; 50,81</t>
+          <t>39,46; 50,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,71; 23,08</t>
+          <t>12,47; 22,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 18,84</t>
+          <t>8,31; 18,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,08</t>
+          <t>8,25; 16,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,65; 45,39</t>
+          <t>32,69; 45,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 21,39</t>
+          <t>12,46; 20,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,12; 19,0</t>
+          <t>11,05; 19,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,75; 20,87</t>
+          <t>12,17; 21,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,13; 50,79</t>
+          <t>36,51; 50,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,34</t>
+          <t>13,56; 20,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,63</t>
+          <t>11,26; 17,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,21</t>
+          <t>11,39; 17,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,8; 46,72</t>
+          <t>36,84; 46,62</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,94</t>
+          <t>13,79; 19,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,61</t>
+          <t>11,92; 17,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,73</t>
+          <t>10,62; 15,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,85</t>
+          <t>29,77; 37,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,02</t>
+          <t>12,47; 17,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,68</t>
+          <t>11,82; 15,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,8</t>
+          <t>14,01; 18,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,67; 41,07</t>
+          <t>34,5; 40,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,49</t>
+          <t>13,7; 17,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 15,9</t>
+          <t>12,58; 15,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,27; 16,59</t>
+          <t>13,27; 16,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,38; 38,49</t>
+          <t>33,33; 38,42</t>
         </is>
       </c>
     </row>
